--- a/S7_1200-1500/Excel/laser模板.xlsx
+++ b/S7_1200-1500/Excel/laser模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>速度(mm/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对深度总值（mm）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,15 +517,15 @@
     <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="18.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -553,18 +557,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
